--- a/ReadyForConversion/APAP_Set8_Assignment.xlsx
+++ b/ReadyForConversion/APAP_Set8_Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAP\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajith\Documents\GitHub\APAPLocal\ReadyForConversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B06ADF-FD5C-443C-B8BC-A155943186D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC981388-AC1F-42FD-86E8-BE345A238A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5CDD8A67-3667-4C55-9706-4135ED06F4AE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5CDD8A67-3667-4C55-9706-4135ED06F4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="SET_8" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1850,12 +1850,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5320,7 +5319,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0065FC81-11B2-4E0D-8691-39A87E12FF0D}" name="PivotTable7" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0065FC81-11B2-4E0D-8691-39A87E12FF0D}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:S13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -5745,38 +5744,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4DF19B-C3C5-46F6-B5A1-D82D2CE25B90}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:T552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="2"/>
+    <col min="18" max="18" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5817,10 +5816,10 @@
       <c r="D3" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>578</v>
       </c>
       <c r="H3"/>
@@ -5837,7 +5836,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5850,7 +5849,7 @@
       <c r="D4" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>576</v>
       </c>
       <c r="G4" t="s">
@@ -5894,7 +5893,7 @@
       </c>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5907,33 +5906,33 @@
       <c r="D5" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
         <v>63</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4">
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5">
         <v>74</v>
       </c>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5946,29 +5945,29 @@
       <c r="D6" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6">
         <v>74</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4">
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6">
         <v>74</v>
       </c>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5981,29 +5980,29 @@
       <c r="D7" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7">
         <v>74</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4">
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7">
         <v>74</v>
       </c>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6016,29 +6015,29 @@
       <c r="D8" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8">
         <v>73</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8">
         <v>73</v>
       </c>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6051,29 +6050,29 @@
       <c r="D9" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9">
         <v>34</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4">
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9">
         <v>34</v>
       </c>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6086,31 +6085,31 @@
       <c r="D10" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10">
         <v>50</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>24</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10">
         <v>74</v>
       </c>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6123,47 +6122,47 @@
       <c r="D11" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>8</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>8</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>16</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11">
         <v>5</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>12</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>14</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11">
         <v>74</v>
       </c>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6176,31 +6175,31 @@
       <c r="D12" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4">
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12">
         <v>69</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12">
         <v>74</v>
       </c>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6213,51 +6212,51 @@
       <c r="D13" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>378</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>32</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>8</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>16</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <v>12</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>14</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13">
         <v>72</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13">
         <v>551</v>
       </c>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6274,7 +6273,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6291,7 +6290,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6308,7 +6307,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6325,7 +6324,7 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6342,7 +6341,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6359,7 +6358,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6376,7 +6375,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6460,7 +6459,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -7020,7 +7019,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -7580,7 +7579,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -7832,7 +7831,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -7972,7 +7971,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -8014,7 +8013,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -8028,7 +8027,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -8112,7 +8111,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -8126,7 +8125,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -8154,7 +8153,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -8210,7 +8209,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -8294,7 +8293,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -8364,7 +8363,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -8392,7 +8391,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -8448,7 +8447,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -8462,7 +8461,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -8476,7 +8475,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -8518,7 +8517,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -8546,7 +8545,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -8658,7 +8657,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -8672,7 +8671,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -8728,7 +8727,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -8742,7 +8741,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -8756,7 +8755,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -8798,7 +8797,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -8840,7 +8839,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -8868,7 +8867,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -8938,7 +8937,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -8980,7 +8979,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -8994,7 +8993,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -9036,7 +9035,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -9078,7 +9077,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -9106,7 +9105,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -9120,7 +9119,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -9162,7 +9161,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -9218,7 +9217,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -9274,7 +9273,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -9372,7 +9371,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -9428,7 +9427,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -9442,7 +9441,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -9470,7 +9469,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -9484,7 +9483,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -9582,7 +9581,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -9596,7 +9595,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -9652,7 +9651,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -9680,7 +9679,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -9890,7 +9889,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -9932,7 +9931,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -9988,7 +9987,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -10002,7 +10001,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -10016,7 +10015,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -10100,7 +10099,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -10128,7 +10127,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -10198,7 +10197,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -10212,7 +10211,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -10254,7 +10253,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -10268,7 +10267,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -10338,7 +10337,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -10352,7 +10351,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -10408,7 +10407,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -10450,7 +10449,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -10492,7 +10491,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -10520,7 +10519,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -10534,7 +10533,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -10548,7 +10547,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -10562,7 +10561,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -10590,7 +10589,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -10618,7 +10617,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -10632,7 +10631,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -10660,7 +10659,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -10674,7 +10673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -10716,7 +10715,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -10800,7 +10799,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -10814,7 +10813,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -10828,7 +10827,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -10856,7 +10855,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -10912,7 +10911,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -10926,7 +10925,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -10968,7 +10967,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -10982,7 +10981,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -10996,7 +10995,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -11010,7 +11009,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>352</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>353</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>354</v>
       </c>
@@ -11066,7 +11065,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>355</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>356</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>357</v>
       </c>
@@ -11108,7 +11107,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>358</v>
       </c>
@@ -11122,7 +11121,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>359</v>
       </c>
@@ -11136,7 +11135,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>360</v>
       </c>
@@ -11150,7 +11149,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -11192,7 +11191,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>364</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>365</v>
       </c>
@@ -11220,7 +11219,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>366</v>
       </c>
@@ -11234,7 +11233,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -11248,7 +11247,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>368</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>369</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -11290,7 +11289,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>371</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -11318,7 +11317,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>374</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>375</v>
       </c>
@@ -11360,7 +11359,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>376</v>
       </c>
@@ -11374,7 +11373,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>377</v>
       </c>
@@ -11388,7 +11387,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>378</v>
       </c>
@@ -11402,7 +11401,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>379</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -11430,7 +11429,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>381</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -11458,7 +11457,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>383</v>
       </c>
@@ -11472,7 +11471,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>384</v>
       </c>
@@ -11486,7 +11485,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>385</v>
       </c>
@@ -11500,7 +11499,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>387</v>
       </c>
@@ -11528,7 +11527,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>388</v>
       </c>
@@ -11542,7 +11541,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>389</v>
       </c>
@@ -11556,7 +11555,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>390</v>
       </c>
@@ -11570,7 +11569,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>391</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>393</v>
       </c>
@@ -11612,7 +11611,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>394</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>395</v>
       </c>
@@ -11640,7 +11639,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>396</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>397</v>
       </c>
@@ -11668,7 +11667,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -11682,7 +11681,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>399</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>400</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>401</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>403</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>404</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>405</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>406</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>407</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>408</v>
       </c>
@@ -11822,7 +11821,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>409</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>410</v>
       </c>
@@ -11850,7 +11849,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>411</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>412</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>413</v>
       </c>
@@ -11892,7 +11891,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>414</v>
       </c>
@@ -11906,7 +11905,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>415</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -11934,7 +11933,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>417</v>
       </c>
@@ -11948,7 +11947,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>418</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>419</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>420</v>
       </c>
@@ -11990,7 +11989,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>421</v>
       </c>
@@ -12004,7 +12003,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>422</v>
       </c>
@@ -12018,7 +12017,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>423</v>
       </c>
@@ -12032,7 +12031,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -12046,7 +12045,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>425</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>427</v>
       </c>
@@ -12088,7 +12087,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>429</v>
       </c>
@@ -12116,7 +12115,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>430</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>431</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>432</v>
       </c>
@@ -12158,7 +12157,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>433</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>434</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>435</v>
       </c>
@@ -12200,7 +12199,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>436</v>
       </c>
@@ -12214,7 +12213,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>437</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>438</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>439</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>440</v>
       </c>
@@ -12270,7 +12269,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>441</v>
       </c>
@@ -12284,7 +12283,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>442</v>
       </c>
@@ -12298,7 +12297,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>443</v>
       </c>
@@ -12312,7 +12311,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>444</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>445</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>446</v>
       </c>
@@ -12354,7 +12353,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>447</v>
       </c>
@@ -12368,7 +12367,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>448</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>449</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>450</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>451</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>452</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>453</v>
       </c>
@@ -12452,7 +12451,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>454</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>455</v>
       </c>
@@ -12480,7 +12479,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>456</v>
       </c>
@@ -12494,7 +12493,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>457</v>
       </c>
@@ -12508,7 +12507,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>458</v>
       </c>
@@ -12522,7 +12521,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>459</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>460</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>461</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>462</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>463</v>
       </c>
@@ -12592,7 +12591,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>464</v>
       </c>
@@ -12606,7 +12605,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>465</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>466</v>
       </c>
@@ -12634,7 +12633,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>467</v>
       </c>
@@ -12648,7 +12647,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>468</v>
       </c>
@@ -12662,7 +12661,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>469</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>470</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>471</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>472</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>473</v>
       </c>
@@ -12732,7 +12731,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>474</v>
       </c>
@@ -12746,7 +12745,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>475</v>
       </c>
@@ -12760,7 +12759,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>476</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>477</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>478</v>
       </c>
@@ -12802,7 +12801,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>479</v>
       </c>
@@ -12816,7 +12815,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>480</v>
       </c>
@@ -12830,7 +12829,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>481</v>
       </c>
@@ -12844,7 +12843,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>482</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>483</v>
       </c>
@@ -12872,7 +12871,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>484</v>
       </c>
@@ -12886,7 +12885,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>485</v>
       </c>
@@ -12900,7 +12899,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>486</v>
       </c>
@@ -12914,7 +12913,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>487</v>
       </c>
@@ -12928,7 +12927,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>489</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>490</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>491</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>492</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>493</v>
       </c>
@@ -13012,7 +13011,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>494</v>
       </c>
@@ -13026,7 +13025,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>495</v>
       </c>
@@ -13040,7 +13039,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>496</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>497</v>
       </c>
@@ -13068,7 +13067,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>498</v>
       </c>
@@ -13082,7 +13081,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>499</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>500</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>501</v>
       </c>
@@ -13124,7 +13123,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>502</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>503</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>504</v>
       </c>
@@ -13166,7 +13165,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>505</v>
       </c>
@@ -13180,7 +13179,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>506</v>
       </c>
@@ -13194,7 +13193,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>507</v>
       </c>
@@ -13208,7 +13207,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>508</v>
       </c>
@@ -13222,7 +13221,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>509</v>
       </c>
@@ -13236,7 +13235,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>510</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>511</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>512</v>
       </c>
@@ -13278,7 +13277,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>513</v>
       </c>
@@ -13292,7 +13291,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>514</v>
       </c>
@@ -13306,7 +13305,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>515</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>516</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>517</v>
       </c>
@@ -13348,7 +13347,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>518</v>
       </c>
@@ -13362,7 +13361,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>519</v>
       </c>
@@ -13376,7 +13375,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>520</v>
       </c>
@@ -13390,7 +13389,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>521</v>
       </c>
@@ -13404,7 +13403,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>522</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>523</v>
       </c>
@@ -13432,7 +13431,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>524</v>
       </c>
@@ -13446,7 +13445,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>525</v>
       </c>
@@ -13460,7 +13459,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>526</v>
       </c>
@@ -13474,7 +13473,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>527</v>
       </c>
@@ -13488,7 +13487,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>528</v>
       </c>
@@ -13502,7 +13501,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>529</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>530</v>
       </c>
@@ -13530,7 +13529,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>531</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>532</v>
       </c>
@@ -13558,7 +13557,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>533</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>534</v>
       </c>
@@ -13586,7 +13585,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>535</v>
       </c>
@@ -13600,7 +13599,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>536</v>
       </c>
@@ -13614,7 +13613,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>537</v>
       </c>
@@ -13628,7 +13627,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>538</v>
       </c>
@@ -13642,7 +13641,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>539</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>540</v>
       </c>
@@ -13670,7 +13669,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>541</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3">
         <v>542</v>
       </c>
@@ -13698,7 +13697,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>543</v>
       </c>
@@ -13712,7 +13711,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3">
         <v>544</v>
       </c>
@@ -13726,7 +13725,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>545</v>
       </c>
@@ -13740,7 +13739,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>546</v>
       </c>
@@ -13754,7 +13753,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>547</v>
       </c>
@@ -13768,7 +13767,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>548</v>
       </c>
@@ -13782,7 +13781,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>549</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>550</v>
       </c>
@@ -13810,7 +13809,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>551</v>
       </c>
@@ -13825,33 +13824,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D552" xr:uid="{DC4DF19B-C3C5-46F6-B5A1-D82D2CE25B90}"/>
+  <autoFilter ref="A1:D552" xr:uid="{DC4DF19B-C3C5-46F6-B5A1-D82D2CE25B90}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="APAP.LAPAP"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Ajithkumar"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D552">
     <sortCondition ref="D1:D552"/>
   </sortState>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B552">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B552">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B552">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B552">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B552">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReadyForConversion/APAP_Set8_Assignment.xlsx
+++ b/ReadyForConversion/APAP_Set8_Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajith\Documents\GitHub\APAPLocal\ReadyForConversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC981388-AC1F-42FD-86E8-BE345A238A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC878F70-4303-43AA-AD47-F44F84185D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5CDD8A67-3667-4C55-9706-4135ED06F4AE}"/>
+    <workbookView xWindow="5436" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{5CDD8A67-3667-4C55-9706-4135ED06F4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="SET_8" sheetId="1" r:id="rId1"/>
@@ -5744,11 +5744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4DF19B-C3C5-46F6-B5A1-D82D2CE25B90}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -5789,7 +5789,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>346</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>347</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>348</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>349</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>350</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>351</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>352</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>353</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>354</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>355</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>356</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>357</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>358</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>359</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>360</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>361</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>363</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>364</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>365</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>366</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>367</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>368</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>369</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>370</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>371</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>372</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>373</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>374</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>375</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>376</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>377</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>378</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>379</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>380</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>381</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>382</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>383</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>384</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>385</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>386</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>387</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>388</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>389</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>390</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>391</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>392</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>393</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>394</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>395</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>396</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>397</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>398</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>399</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>400</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>401</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>402</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>403</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>404</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>405</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>406</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>407</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>408</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>409</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>410</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>411</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>412</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>413</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>414</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>415</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>416</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>417</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>418</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>419</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>420</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>421</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>422</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>423</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>424</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>425</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>426</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>427</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>428</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>429</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>430</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>431</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>432</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>433</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>434</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>435</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>436</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>437</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>438</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>439</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>440</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>441</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>442</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>443</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>444</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>445</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>446</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>447</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>448</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>449</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>450</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>451</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>452</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>453</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>454</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>455</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>456</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>457</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>458</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>459</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>460</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>461</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>462</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>463</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>464</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>465</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>466</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>467</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>468</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>469</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>470</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>471</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>472</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>473</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>474</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>475</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>476</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>477</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>478</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>479</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>480</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>481</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>482</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>483</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>484</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>485</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>486</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>487</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>488</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>489</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>490</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>491</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>492</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>493</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>494</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>495</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>496</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>497</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>498</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>499</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>500</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>501</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>502</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>503</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>504</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>505</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>506</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>507</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>508</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>509</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>510</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>511</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>512</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>513</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>514</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>515</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>516</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>517</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>518</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>519</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>520</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>521</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>522</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>523</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>524</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>525</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>526</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>527</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>528</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>529</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>530</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>531</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>532</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>533</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>534</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>535</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>536</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>537</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>538</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>539</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>540</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>541</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="3">
         <v>542</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>543</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="3">
         <v>544</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>545</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>546</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>547</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>548</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>549</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="3">
         <v>550</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>551</v>
       </c>
@@ -13824,18 +13824,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D552" xr:uid="{DC4DF19B-C3C5-46F6-B5A1-D82D2CE25B90}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="APAP.LAPAP"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Ajithkumar"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D552" xr:uid="{DC4DF19B-C3C5-46F6-B5A1-D82D2CE25B90}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D552">
     <sortCondition ref="D1:D552"/>
   </sortState>
